--- a/va_facility_data_2025-02-20/Pine Ridge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pine%20Ridge%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pine Ridge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pine%20Ridge%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0cfb7011b5de4a6098f4c55b70078c2f"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R8d573cdf47cd419bb2b55ef752d8ad41"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R402ef5c916444c13b2c85db2f0468477"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rd356ab18056148c99be57d105bb5b0b0"/>
   </x:sheets>
 </x:workbook>
 </file>
